--- a/aaaaaaaaaaaaaa.xlsx
+++ b/aaaaaaaaaaaaaa.xlsx
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,16 +87,146 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,22 +234,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="6" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -908,52 +1088,52 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -972,42 +1152,42 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1021,42 +1201,42 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="6" t="n">
+      <c r="B20" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1070,42 +1250,42 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="6" t="n">
+      <c r="B27" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>6</v>
       </c>
     </row>
